--- a/GRE_tab.xlsx
+++ b/GRE_tab.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Model</t>
   </si>
@@ -35,10 +35,13 @@
     <t>3</t>
   </si>
   <si>
-    <t>PY1</t>
+    <t>DP1</t>
   </si>
   <si>
     <t>DP</t>
+  </si>
+  <si>
+    <t>PY1</t>
   </si>
 </sst>
 </file>
@@ -143,16 +146,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.7756252285624314</v>
+        <v>3.844603361222345</v>
       </c>
       <c r="E4" t="n">
-        <v>0.10465901861359306</v>
+        <v>0.08382340527308028</v>
       </c>
     </row>
   </sheetData>
